--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value347.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value347.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.638746146182471</v>
+        <v>0.7500298023223877</v>
       </c>
       <c r="B1">
-        <v>4.051406811212932</v>
+        <v>1.407041192054749</v>
       </c>
       <c r="C1">
-        <v>2.062185142772689</v>
+        <v>5.295890808105469</v>
       </c>
       <c r="D1">
-        <v>0.9200643089862073</v>
+        <v>3.176616907119751</v>
       </c>
       <c r="E1">
-        <v>0.6688361447614922</v>
+        <v>1.522581815719604</v>
       </c>
     </row>
   </sheetData>
